--- a/data/trans_bre/P38A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Estudios-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">

--- a/data/trans_bre/P38A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,21%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,19; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 7,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 6,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,29; 6,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 8,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 7,75</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,53; 7,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 9,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,18; 14,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 9,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 11,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 19,49</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,68</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,1%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 3,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 7,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,05; 5,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 4,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 9,62</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 6,47</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,8; 6,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 8,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 10,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,24; 7,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,41; 9,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,92; 13,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Estudios-trans_bre.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,8</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>4,17%</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,79</t>
+          <t>0,69; 6,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,75</t>
+          <t>0,76; 7,83</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>19,15%</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 14,17</t>
+          <t>2,66; 34,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 19,49</t>
+          <t>3,53; 64,67</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,61%</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,52</t>
+          <t>-1,45; 7,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 6,47</t>
+          <t>-1,57; 8,28</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>10,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>13,64%</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 10,73</t>
+          <t>3,54; 26,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 13,8</t>
+          <t>4,29; 42,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P38A-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P38A-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,61</t>
+          <t>1,03; 5,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,58</t>
+          <t>2,41; 7,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 6,9</t>
+          <t>1,02; 7,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 6,33</t>
+          <t>1,12; 6,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,56</t>
+          <t>2,63; 8,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,83</t>
+          <t>1,08; 8,09</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,52</t>
+          <t>2,58; 7,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 9,08</t>
+          <t>4,32; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 34,52</t>
+          <t>2,99; 37,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,04; 9,39</t>
+          <t>3,12; 9,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,48</t>
+          <t>5,24; 11,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 64,67</t>
+          <t>3,49; 78,16</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,94</t>
+          <t>-5,37; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 7,87</t>
+          <t>-0,28; 8,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 7,03</t>
+          <t>-1,07; 8,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 4,49</t>
+          <t>-5,78; 3,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,62</t>
+          <t>-0,27; 10,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,28</t>
+          <t>-1,16; 9,69</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,14</t>
+          <t>2,76; 6,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,07</t>
+          <t>4,6; 7,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,54; 26,28</t>
+          <t>3,42; 29,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 7,24</t>
+          <t>3,25; 7,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,41; 9,78</t>
+          <t>5,38; 9,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 42,92</t>
+          <t>4,01; 49,77</t>
         </is>
       </c>
     </row>
